--- a/biology/Médecine/Claudius_Chervin/Claudius_Chervin.xlsx
+++ b/biology/Médecine/Claudius_Chervin/Claudius_Chervin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claudius Chervin, né le 3 août 1824 à Bourg-de-Thizy (Rhône) et mort le 23 décembre 1896 à Paris, est un pédagogue et un thérapeute français. Spécialiste du bégaiement, il est le fondateur de l'Institution des bègues à Paris.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1844, il commence sa carrière dans l'enseignement et devient instituteur à Albigny-sur-Saône jusqu'en 1847. Parmi ses élèves, il compte un enfant atteint de bégaiement. Il tente de le guérir et y parvient. Fort de ce succès, il est mandaté en 1860 par le préfet du Rhône Claude-Marius Vaïsse pour étudier un traitement contre le bégaiement. Conjointement avec son fils, le docteur et anthropologue Arthur Chervin (1850-1921), il poursuit ses expériences à Paris et fonde l'Institut des bègues en 1867 sous les auspices du ministre de l'Instruction publique. Son fils lui succède en 1878.
 </t>
@@ -544,11 +558,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Pédagogie
-Chervin, Claudius, 1851, Mes récréations, poésies diverses de Claudius Chervin, monographie imprimée. [1]
-Chervin, Caudius, 1857, Méthode de lecture ou Procédé pour apprendre à lire en peu de temps d'une manière conforme à la marche naturelle du langage, ouvrage approprié au goût et à l'intelligence des enfants faisant suite à l'alphabet par un ancien instituteur, (première partie), Paris : Nouvelle librairie classique Victor Sarlit. [2]
-Surdités - Bégaiement
-Chervin, Claudius, 1854, Guérison des bègues, prompte et radicale, sans remède ni opération, mais par l'imitation, Lyon : A. Brun. [3]
+          <t>Pédagogie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chervin, Claudius, 1851, Mes récréations, poésies diverses de Claudius Chervin, monographie imprimée. 
+Chervin, Caudius, 1857, Méthode de lecture ou Procédé pour apprendre à lire en peu de temps d'une manière conforme à la marche naturelle du langage, ouvrage approprié au goût et à l'intelligence des enfants faisant suite à l'alphabet par un ancien instituteur, (première partie), Paris : Nouvelle librairie classique Victor Sarlit. </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Claudius_Chervin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claudius_Chervin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Surdités - Bégaiement</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chervin, Claudius, 1854, Guérison des bègues, prompte et radicale, sans remède ni opération, mais par l'imitation, Lyon : A. Brun. 
 Chervin Claudius, 1863, Les Bienfaiteurs des sourds-muets, Grenoble : Allier Frères.
 Chervin, Claudius, 1864, L'Asile et l'École ouverts aux Sourds-Muets par la méthode de M. le docteur Blanchet, mémoire lu à la Sorbonne dans la réunion des Sociétés savantes.
 Chervin, Claudius, 1865,Statistique décennale des Bègues en France, mémoire lu à la Sorbonne dans la réunion des Sociétés savantes.
@@ -556,7 +609,7 @@
 Chervin, Claudius, 1867, Rapport à S. Exc. M. le Ministre de l'Instruction publique sur l'Institution des Bègues de Paris.
 Chervin, Claudius, 1870, Nouvelle statistique des Bègues en France, de 1852 à 1867, mémoire lu à la Sorbonne dans la réunion des Sociétés savantes. (traduit en espagnol, italien, anglais et allemand).
 Chervin Claudius, 1895, Bégaiement et autres défauts de prononciation, Paris :  Société d'éditions scientifiques.
-Chervin, Claudius, s.d., Méthode-Chervin appliquée à la cure du bégaiement et de tous les autres défauts de prononciation, méthode autorisée et recommandée par M. le ministre de l'Instruction publique. Extraits de différents rapports officiels, Paris : Institution des bègues. [4]</t>
+Chervin, Claudius, s.d., Méthode-Chervin appliquée à la cure du bégaiement et de tous les autres défauts de prononciation, méthode autorisée et recommandée par M. le ministre de l'Instruction publique. Extraits de différents rapports officiels, Paris : Institution des bègues. </t>
         </is>
       </c>
     </row>
